--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348668.763172783</v>
+        <v>1402373.892945712</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760717</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6908220.871868498</v>
+        <v>7497671.202210642</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>70.34149945610365</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>28.90838232461316</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>132.9676529864977</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -877,7 +879,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>178.2355525288848</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>140.0569315845343</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>265.3439815931928</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>122.9177036806383</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1139,16 +1141,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>264.1024744281169</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>343.4919096329623</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>181.2635869532363</v>
+        <v>25.13775189891268</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1379,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>312.9009087555638</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>27.83511793603511</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>4.378995526348374</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555638</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7682651318491</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>164.7047943182449</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>192.8717243028901</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.6219416818221</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>96.44420510686395</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>253.6542084583247</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>54.24413860624966</v>
       </c>
     </row>
     <row r="29">
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>25.45817320599514</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>6.464056402160221</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>265.5672156808878</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3664,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>108.3554797687791</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3712,13 +3714,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>32.03690397902969</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>182.6470420306491</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>292.3236405495159</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028904</v>
       </c>
       <c r="X43" t="n">
-        <v>160.9061021023308</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>414.6525782897664</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>292.3236405495159</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.0371454014421</v>
+        <v>2095.759537287836</v>
       </c>
       <c r="C2" t="n">
-        <v>529.1768194551463</v>
+        <v>1668.858807301136</v>
       </c>
       <c r="D2" t="n">
-        <v>509.9246026805507</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E2" t="n">
-        <v>487.9880668688123</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F2" t="n">
-        <v>458.7876806823343</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L2" t="n">
-        <v>583.4696253673028</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1257.271276480617</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1931.072927593931</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2604.874578707245</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W2" t="n">
-        <v>1384.902374529931</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X2" t="n">
-        <v>973.1823756976778</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.8855096929722</v>
+        <v>2111.567497538962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>61.8952612336948</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>61.8952612336948</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M3" t="n">
-        <v>61.8952612336948</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N3" t="n">
-        <v>725.1891208761992</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>725.1891208761992</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1226.609960293476</v>
+        <v>626.292594627669</v>
       </c>
       <c r="C4" t="n">
-        <v>1054.637397172392</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="D4" t="n">
-        <v>891.3206242991624</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E4" t="n">
-        <v>725.112418452016</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>553.2506442265764</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>542.0178861760197</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>542.0178861760197</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2722.430913589148</v>
+        <v>2090.600491869954</v>
       </c>
       <c r="T4" t="n">
-        <v>2722.430913589148</v>
+        <v>1847.261144095854</v>
       </c>
       <c r="U4" t="n">
-        <v>2442.246465089452</v>
+        <v>1567.076695596159</v>
       </c>
       <c r="V4" t="n">
-        <v>2160.534997697481</v>
+        <v>1285.365228204187</v>
       </c>
       <c r="W4" t="n">
-        <v>1885.682593869994</v>
+        <v>1285.365228204187</v>
       </c>
       <c r="X4" t="n">
-        <v>1643.118697315799</v>
+        <v>1042.801331649993</v>
       </c>
       <c r="Y4" t="n">
-        <v>1416.775929005541</v>
+        <v>816.4585633397346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1493.174334761007</v>
+        <v>729.6507098898958</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.314008814711</v>
+        <v>302.7499799031959</v>
       </c>
       <c r="D5" t="n">
-        <v>1047.021387999711</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>621.0444481475689</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>195.9202663369691</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>918.7421318583365</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L5" t="n">
-        <v>918.7421318583365</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.543782971651</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.543782971651</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O5" t="n">
-        <v>2266.345434084965</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2266.345434084965</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="W5" t="n">
-        <v>2326.039563889495</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.319565057242</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1508.982295012133</v>
+        <v>1149.499074181426</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M6" t="n">
-        <v>728.2502693850971</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N6" t="n">
-        <v>728.2502693850971</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O6" t="n">
-        <v>1402.051920498411</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2064.726598204046</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>2064.726598204046</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>2064.726598204046</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W7" t="n">
-        <v>1796.702374372538</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X7" t="n">
-        <v>1554.138477818344</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.3516507646256</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>383.4913248183298</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>364.2391080437341</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>342.3025722319957</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>321.2187944618</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2397.138048506922</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2039.648633633171</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.257283933518</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>1231.537285101265</v>
+        <v>1657.02415662523</v>
       </c>
       <c r="Y8" t="n">
-        <v>826.2000150561556</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>644.9335448401225</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>725.1891208761992</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>725.1891208761992</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N9" t="n">
-        <v>725.1891208761992</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O9" t="n">
-        <v>725.1891208761992</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1398.990771989513</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.9461601132427</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C10" t="n">
-        <v>383.9735969921587</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D10" t="n">
-        <v>220.6568241189294</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E10" t="n">
-        <v>54.44861827178296</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2051.767113408915</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="U10" t="n">
-        <v>1771.582664909219</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V10" t="n">
-        <v>1489.871197517248</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W10" t="n">
-        <v>1215.018793689761</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X10" t="n">
-        <v>972.4548971355664</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y10" t="n">
-        <v>746.1121288253084</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.483428721419</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.483428721419</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D11" t="n">
-        <v>813.1908079064194</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E11" t="n">
-        <v>387.2138680542769</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F11" t="n">
-        <v>387.2138680542769</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K11" t="n">
-        <v>417.0520770886785</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>417.0520770886785</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1090.853728201993</v>
+        <v>2994.337835136584</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.543782971651</v>
+        <v>2994.337835136584</v>
       </c>
       <c r="O11" t="n">
-        <v>2266.345434084965</v>
+        <v>3839.482485287396</v>
       </c>
       <c r="P11" t="n">
-        <v>2266.345434084965</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T11" t="n">
-        <v>2501.505342633781</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U11" t="n">
-        <v>2501.505342633781</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V11" t="n">
-        <v>2501.505342633781</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W11" t="n">
-        <v>2473.389061890311</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X11" t="n">
-        <v>2061.669063058059</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1656.331793012949</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.051920498411</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.743090736225</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.842360749525</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D14" t="n">
-        <v>905.5497399345252</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E14" t="n">
-        <v>479.5728000823827</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2075.853571611725</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W14" t="n">
-        <v>2587.311453860008</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X14" t="n">
-        <v>2175.591455027755</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y14" t="n">
-        <v>2175.591455027755</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>388.6325606206753</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>1373.424036115293</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1373.424036115293</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1373.424036115293</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,37 +5515,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5601,7 +5603,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5650,16 +5652,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,22 +5697,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X19" t="n">
         <v>1601.992572952389</v>
@@ -5768,13 +5770,13 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5829,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>960.064176771508</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.72140846125</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5990,34 +5992,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>3896.932966279258</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>3896.932966279258</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>3896.932966279258</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>4568.970883343945</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5554397491844</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>371.5828766281004</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>371.5828766281004</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>960.064176771508</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>700.2342829360799</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>1446.844867123559</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.844867123559</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N27" t="n">
         <v>1446.844867123559</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>2001.004273426986</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1744.78790124686</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6470,28 +6472,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>730.647150085061</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>371.5828766281004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6953,34 +6955,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7020,7 +7022,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M36" t="n">
         <v>557.3635891120873</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1020.040622710153</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="V37" t="n">
-        <v>1953.965660114159</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="W37" t="n">
-        <v>1679.113256286672</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X37" t="n">
-        <v>1436.549359732477</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.206591422219</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,13 +7262,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1131.61704262126</v>
+        <v>537.3606176598659</v>
       </c>
       <c r="C40" t="n">
-        <v>959.6444795001755</v>
+        <v>365.3880545387818</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>2033.181570955538</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>1752.997122455842</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025265</v>
+        <v>1471.285655063871</v>
       </c>
       <c r="W40" t="n">
-        <v>1790.689676197778</v>
+        <v>1196.433251236384</v>
       </c>
       <c r="X40" t="n">
-        <v>1548.125779643583</v>
+        <v>953.8693546821894</v>
       </c>
       <c r="Y40" t="n">
-        <v>1321.783011333325</v>
+        <v>727.5265863719314</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1089.133930720603</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C41" t="n">
-        <v>662.233200733903</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D41" t="n">
-        <v>238.9405799189033</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E41" t="n">
-        <v>54.44861827178296</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>54.44861827178296</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2502693850971</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="N41" t="n">
-        <v>1402.051920498411</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O41" t="n">
-        <v>2048.629262475834</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W41" t="n">
-        <v>2326.039563889495</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.319565057242</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>1508.982295012133</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.051920498411</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="W43" t="n">
-        <v>1716.669894083324</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>473.2896064432642</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C44" t="n">
-        <v>473.2896064432642</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D44" t="n">
-        <v>473.2896064432642</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E44" t="n">
-        <v>473.2896064432642</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="L44" t="n">
-        <v>1090.853728201993</v>
+        <v>896.2443403489226</v>
       </c>
       <c r="M44" t="n">
-        <v>1474.987448089748</v>
+        <v>1900.530441767981</v>
       </c>
       <c r="N44" t="n">
-        <v>1474.987448089748</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.987448089748</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U44" t="n">
-        <v>2464.07600418556</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V44" t="n">
-        <v>2106.58658931181</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W44" t="n">
-        <v>1710.195239612157</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X44" t="n">
-        <v>1298.475240779904</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y44" t="n">
-        <v>893.1379707347943</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>3762.283104400453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>3644.777200917958</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>3540.937242433243</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>3436.235308706181</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>3342.589478389085</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>3248.535706606689</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368999</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>3466.85710264859</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>3466.85710264859</v>
       </c>
       <c r="L45" t="n">
-        <v>728.2502693850971</v>
+        <v>3466.85710264859</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>4522.843640624635</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>4539.701767086728</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>4539.701767086728</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>4539.701767086728</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>4922.522996510762</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>4780.64306080844</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>4595.874864728077</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>4390.901725867344</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>4194.380348700561</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>4030.903002467224</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>3891.210113820516</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>3047.513282086044</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>2875.54071896496</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760537</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966374</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260795</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231046</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107081</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786845</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708745</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>4956.80863063668</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>4786.673583155815</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.726598204046</v>
+        <v>4543.334235381715</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.542149704351</v>
+        <v>4263.14978688202</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.830682312379</v>
+        <v>3981.438319490049</v>
       </c>
       <c r="W46" t="n">
-        <v>1502.830682312379</v>
+        <v>3706.585915662562</v>
       </c>
       <c r="X46" t="n">
-        <v>1502.830682312379</v>
+        <v>3464.022019108367</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>3237.679250798109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>206.410576047395</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>110.4525178970661</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>691.336825832233</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>542.522231875272</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P6" t="n">
-        <v>487.5125870168303</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>690.388049074267</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8529,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>103.5813251345091</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>550.6255558370718</v>
       </c>
       <c r="P9" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8690,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>932.9101273902627</v>
       </c>
       <c r="N11" t="n">
-        <v>544.0372539149087</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8775,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>280.9020403556214</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882861</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9009,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>313.9854056452247</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q20" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,25 +9479,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>255.148922768857</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>700.5970200580479</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>517.6546514635598</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>776.6671919541075</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>423.228367941047</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10188,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>382.6486756511529</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10668,10 +10670,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M36" t="n">
-        <v>482.7542307206702</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,16 +10910,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>228.1560083209543</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>814.1663547822806</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11297,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>476.2554127892259</v>
       </c>
       <c r="M44" t="n">
-        <v>425.4451213719119</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>488.8385263243295</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>38.3714387813128</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>107.97203123693</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>364.5923182666215</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>165.7641609568368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>107.97203123693</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>258.6591710708075</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>114.1895583998065</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>79.23215548632197</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.64236734312291</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>68.10191868181103</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>18.44967133088741</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>169.8352020209057</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.136226802715</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>163.7887810877129</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>11.81538833381092</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.32812537571793</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>208.8690503173293</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>239.0701284229719</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>107.97203123693</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.23215548632174</v>
       </c>
       <c r="X43" t="n">
-        <v>79.23215548632211</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.220361702727303</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>107.97203123693</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>664850.7282271883</v>
+        <v>663870.6647492797</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>664850.7282271883</v>
+        <v>663870.6647492797</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>664850.7282271883</v>
+        <v>663870.6647492797</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434005.3672682573</v>
+        <v>636712.1945717067</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434005.3672682573</v>
+        <v>636712.1945717068</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646600.3169276123</v>
+        <v>646600.3169276122</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646600.3169276123</v>
+        <v>646600.3169276122</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646600.3169276122</v>
+        <v>646600.3169276123</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646600.3169276122</v>
+        <v>646600.3169276123</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646600.3169276122</v>
+        <v>646600.3169276123</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434005.3672682573</v>
+        <v>636712.1945717069</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434005.3672682571</v>
+        <v>636712.1945717069</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="C2" t="n">
         <v>364026.6675069772</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068674</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609045</v>
       </c>
       <c r="H2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="I2" t="n">
         <v>351269.0019609046</v>
@@ -26338,22 +26340,22 @@
         <v>351269.0019609046</v>
       </c>
       <c r="K2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="M2" t="n">
-        <v>351269.0019609049</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="N2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068674</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068674</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481228</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792743</v>
@@ -26454,10 +26456,10 @@
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66308.22021284318</v>
+        <v>-37954.72951420239</v>
       </c>
       <c r="C6" t="n">
-        <v>161779.083550841</v>
+        <v>148450.0039005349</v>
       </c>
       <c r="D6" t="n">
-        <v>161779.0835508407</v>
+        <v>148450.0039005348</v>
       </c>
       <c r="E6" t="n">
-        <v>184278.3110918883</v>
+        <v>47522.83460050286</v>
       </c>
       <c r="F6" t="n">
-        <v>184278.3110918883</v>
+        <v>254955.1222170642</v>
       </c>
       <c r="G6" t="n">
-        <v>94451.6453043614</v>
+        <v>250777.1440310662</v>
       </c>
       <c r="H6" t="n">
+        <v>258402.7661145476</v>
+      </c>
+      <c r="I6" t="n">
         <v>258402.7661145475</v>
       </c>
-      <c r="I6" t="n">
-        <v>258402.7661145474</v>
-      </c>
       <c r="J6" t="n">
-        <v>80325.83762576773</v>
+        <v>112869.096179731</v>
       </c>
       <c r="K6" t="n">
-        <v>258402.7661145474</v>
+        <v>258402.7661145475</v>
       </c>
       <c r="L6" t="n">
-        <v>258402.7661145475</v>
+        <v>258402.7661145476</v>
       </c>
       <c r="M6" t="n">
-        <v>258402.7661145477</v>
+        <v>85272.27490890786</v>
       </c>
       <c r="N6" t="n">
         <v>258402.7661145475</v>
       </c>
       <c r="O6" t="n">
-        <v>184278.3110918883</v>
+        <v>254955.1222170642</v>
       </c>
       <c r="P6" t="n">
-        <v>184278.3110918883</v>
+        <v>254955.1222170642</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547979</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547979</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>348.7181951507461</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>391.9645576678806</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>35.46604401955875</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>240.8241420779649</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>260.2387402019115</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27831,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.759898196019265</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.2205539080146</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>136.1931973583289</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>64.11088921096785</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>59.64236734312274</v>
+        <v>215.7682023974463</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>168.0985336147721</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>73.06155854104202</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>669.9937976186914</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>506.7576310804627</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P6" t="n">
-        <v>465.7417458120016</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>653.1084262398209</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>81.06623842027952</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="P9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35410,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>895.4788644908309</v>
       </c>
       <c r="N11" t="n">
-        <v>506.7576310804626</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>71.06229757805477</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>678.8261788532192</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>480.2233885641281</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>754.1521052398779</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>385.7971050416152</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>205.0592278086264</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>776.7350918828488</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>437.9433703566029</v>
       </c>
       <c r="M44" t="n">
-        <v>388.01385847248</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7417458120015</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>17.02841056777114</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1402373.892945712</v>
+        <v>1401655.902830853</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760717</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7497671.202210642</v>
+        <v>7497671.20221064</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>253.4105282165705</v>
       </c>
       <c r="D2" t="n">
-        <v>70.34149945610365</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>132.9676529864977</v>
+        <v>100.8123657859491</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>184.8097125190218</v>
       </c>
       <c r="D5" t="n">
-        <v>178.2355525288848</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>122.9177036806383</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,16 +1141,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.2569788649466</v>
       </c>
       <c r="X8" t="n">
-        <v>343.4919096329623</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>25.13775189891268</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>312.9009087555638</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348374</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>77.6608286034233</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>312.9009087555638</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>11.12043047005083</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>164.7047943182449</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>82.05371450212357</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031836</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>53.3189661508361</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.24413860624966</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,13 +3198,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>54.10504241122563</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>265.5672156808878</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>107.9102304952515</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>161.683605144494</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>30.18334578123646</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>32.03690397902969</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>292.3236405495159</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028904</v>
+        <v>244.3275881150112</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>292.3236405495159</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2095.759537287836</v>
+        <v>1171.120452378521</v>
       </c>
       <c r="C2" t="n">
-        <v>1668.858807301136</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D2" t="n">
-        <v>1597.806787648507</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.829847796364</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336855</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335516</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335516</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335516</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.543958335516</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.864363543668</v>
+        <v>1996.306086715161</v>
       </c>
       <c r="Y2" t="n">
-        <v>2111.567497538962</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336855</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336855</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.292594627669</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>454.3200315065851</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
         <v>454.3200315065851</v>
@@ -4485,55 +4485,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2090.600491869954</v>
+        <v>2123.080579951317</v>
       </c>
       <c r="T4" t="n">
-        <v>1847.261144095854</v>
+        <v>1879.741232177217</v>
       </c>
       <c r="U4" t="n">
-        <v>1567.076695596159</v>
+        <v>1599.556783677521</v>
       </c>
       <c r="V4" t="n">
-        <v>1285.365228204187</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="W4" t="n">
-        <v>1285.365228204187</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X4" t="n">
-        <v>1042.801331649993</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.4585633397346</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>729.6507098898958</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C5" t="n">
-        <v>302.7499799031959</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819457</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058788</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058788</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058788</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.836344226536</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1149.499074181426</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4634,34 +4634,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4761,16 +4761,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1943.199785070404</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1668.347381242917</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.059004423102</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>1597.806787648507</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4810,19 +4810,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>116.829168004879</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
-        <v>1657.02415662523</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>316.1957143288386</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
         <v>1389.040378766978</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>983.8830790816388</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>811.9105159605548</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2199.519583877615</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>2199.519583877615</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1917.808116485644</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1642.955712658157</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1400.391816103962</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1174.049047793704</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
         <v>837.1812570720355</v>
@@ -5041,7 +5041,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
         <v>1178.188711671385</v>
@@ -5050,43 +5050,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2994.337835136584</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136584</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287396</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445324</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M12" t="n">
-        <v>355.3041521238506</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N12" t="n">
-        <v>1444.619098596721</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.3219791407199</v>
+        <v>415.8457764919197</v>
       </c>
       <c r="C13" t="n">
-        <v>514.3219791407199</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="D13" t="n">
-        <v>514.3219791407199</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="E13" t="n">
-        <v>514.3219791407199</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2155.006077561692</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>1911.666729787592</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1631.482281287896</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1349.770813895925</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1074.918410068438</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>832.3545135142433</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>606.0117452039854</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
         <v>837.1812570720355</v>
@@ -5278,7 +5278,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
         <v>1178.188711671385</v>
@@ -5287,43 +5287,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>4933.495569347233</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P14" t="n">
-        <v>5003.847243949507</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>388.6325606206753</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>784.6690189964459</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>612.6964558753618</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>449.3796830021325</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>283.1714771549861</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>111.3097029295465</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724327</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V16" t="n">
-        <v>1373.424036115293</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W16" t="n">
-        <v>1373.424036115293</v>
+        <v>1443.741652572964</v>
       </c>
       <c r="X16" t="n">
-        <v>1373.424036115293</v>
+        <v>1201.17775601877</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>974.8349877085116</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>351.3934591541099</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>185.1852533069635</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="20">
@@ -5752,46 +5752,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>255.9288232320537</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
         <v>202.0712816655526</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6229,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6423,13 +6423,13 @@
         <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.441863840363</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.441863840363</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596601</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1657.501773241197</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1382.64936941371</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>1140.085472859515</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>913.7427045492574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6949,25 +6949,25 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7128,19 +7128,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1600.991632755014</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1600.991632755014</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7183,43 +7183,43 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>537.3606176598659</v>
+        <v>806.1502575345799</v>
       </c>
       <c r="C40" t="n">
-        <v>365.3880545387818</v>
+        <v>634.1776944134958</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0712816655526</v>
+        <v>470.8609215402696</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0712816655526</v>
+        <v>304.6527156931231</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>132.7909414676836</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2033.181570955538</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.997122455842</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1471.285655063871</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1196.433251236384</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>953.8693546821894</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.5265863719314</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
         <v>432.8421946614841</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>462.6804036958857</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>1178.188711671385</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>2107.813759290661</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2876.781500254682</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254682</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405494</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1183.258067403227</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="C43" t="n">
         <v>1011.285504282143</v>
@@ -7563,19 +7563,19 @@
         <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292119</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292119</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518019</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>2037.150624518019</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>2037.150624518019</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1842.330700979745</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="X43" t="n">
-        <v>1599.766804425551</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.424036115293</v>
+        <v>1011.285504282143</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.413071721397</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
         <v>432.8421946614841</v>
@@ -7648,52 +7648,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958857</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2443403489226</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767981</v>
+        <v>2863.231426800693</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254682</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405494</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563422</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067605</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890289</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012927</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400453</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917958</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.937242433243</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706181</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389085</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606689</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3466.85710264859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3466.85710264859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>3466.85710264859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>4522.843640624635</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>4539.701767086728</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O45" t="n">
-        <v>4539.701767086728</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>4539.701767086728</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949507</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949507</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510762</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.64306080844</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728077</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867344</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700561</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467224</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820516</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3047.513282086044</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>2875.54071896496</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>2823.434216536379</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>2823.434216536379</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760537</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966374</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260795</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231046</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107081</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786845</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708745</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.80863063668</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155815</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381715</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.14978688202</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>3981.438319490049</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>3706.585915662562</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>3464.022019108367</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>3237.679250798109</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>110.4525178970661</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>463.2315577343861</v>
       </c>
       <c r="P3" t="n">
-        <v>267.4386025673079</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,10 +8218,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721216</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378162</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8458,10 +8458,10 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8470,10 +8470,10 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8531,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>267.0107895760204</v>
       </c>
       <c r="O9" t="n">
-        <v>550.6255558370718</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>932.9101273902627</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>543.6318887145185</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8777,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>280.9020403556214</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>942.3124318571035</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>108.6376593882861</v>
+        <v>543.6318887145185</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>313.9854056452247</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>701.9980685754421</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>586.0789411493253</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>482.1725369225717</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,7 +10679,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,10 +11068,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>814.1663547822806</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>476.2554127892259</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>800.4794118994632</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>38.3714387813128</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568368</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>90.77286840263319</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>153.4739695386593</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>114.1895583998065</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>88.08944198106161</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183566</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>111.2754338578741</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>169.8352020209057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>224.7893103068258</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>11.81538833381092</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>116.1691101319039</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>134.4110542274737</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>208.8690503173293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.23215548632174</v>
+        <v>27.77629167420088</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636712.1945717067</v>
+        <v>636712.1945717065</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636712.1945717068</v>
+        <v>636712.1945717065</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646600.3169276123</v>
+        <v>646600.3169276122</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636712.1945717069</v>
+        <v>636712.1945717065</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636712.1945717069</v>
+        <v>636712.1945717065</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="C2" t="n">
         <v>364026.6675069772</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="E2" t="n">
         <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>345897.3934068674</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609048</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609047</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="J2" t="n">
         <v>351269.0019609046</v>
@@ -26343,7 +26343,7 @@
         <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="M2" t="n">
         <v>351269.0019609047</v>
@@ -26352,10 +26352,10 @@
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>345897.3934068674</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="P2" t="n">
-        <v>345897.3934068674</v>
+        <v>345897.393406867</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481228</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26432,13 +26432,13 @@
         <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26447,13 +26447,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>14883.79308177073</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37954.72951420239</v>
+        <v>-37954.72951420234</v>
       </c>
       <c r="C6" t="n">
         <v>148450.0039005349</v>
       </c>
       <c r="D6" t="n">
-        <v>148450.0039005348</v>
+        <v>148450.0039005349</v>
       </c>
       <c r="E6" t="n">
-        <v>47522.83460050286</v>
+        <v>47450.31750410266</v>
       </c>
       <c r="F6" t="n">
-        <v>254955.1222170642</v>
+        <v>254882.6051206636</v>
       </c>
       <c r="G6" t="n">
-        <v>250777.1440310662</v>
+        <v>250726.1133688819</v>
       </c>
       <c r="H6" t="n">
-        <v>258402.7661145476</v>
+        <v>258351.7354523633</v>
       </c>
       <c r="I6" t="n">
-        <v>258402.7661145475</v>
+        <v>258351.7354523633</v>
       </c>
       <c r="J6" t="n">
-        <v>112869.096179731</v>
+        <v>112818.0655175467</v>
       </c>
       <c r="K6" t="n">
-        <v>258402.7661145475</v>
+        <v>258351.7354523632</v>
       </c>
       <c r="L6" t="n">
-        <v>258402.7661145476</v>
+        <v>258351.7354523632</v>
       </c>
       <c r="M6" t="n">
-        <v>85272.27490890786</v>
+        <v>85221.24424672379</v>
       </c>
       <c r="N6" t="n">
-        <v>258402.7661145475</v>
+        <v>258351.7354523632</v>
       </c>
       <c r="O6" t="n">
-        <v>254955.1222170642</v>
+        <v>254882.6051206636</v>
       </c>
       <c r="P6" t="n">
-        <v>254955.1222170642</v>
+        <v>254882.6051206634</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>169.2211944702624</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>348.7181951507461</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>35.46604401955875</v>
+        <v>67.62133122010742</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>237.8220101678111</v>
       </c>
       <c r="D5" t="n">
-        <v>240.8241420779649</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>117.2205539080146</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0.1704573377099337</v>
       </c>
       <c r="X8" t="n">
-        <v>64.11088921096785</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>215.7682023974463</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30386,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>73.06155854104202</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="P3" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.227813115594</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35190,10 +35190,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="O9" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>895.4788644908309</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>71.06229757805477</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>563.6797073159919</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>459.6574502083422</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,10 +37788,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>776.7350918828488</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>437.9433703566029</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>763.0481490000315</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>17.02841056777114</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
